--- a/dataset/Migrated Information/Migrated Loans.xlsx
+++ b/dataset/Migrated Information/Migrated Loans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>System Generated Samity Information</t>
   </si>
@@ -24,6 +24,18 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>222-003 - samity3</t>
+  </si>
+  <si>
+    <t>001-001-007</t>
+  </si>
+  <si>
+    <t>ME-W-222-003-002-3</t>
+  </si>
+  <si>
+    <t>Loans is Migrated</t>
   </si>
 </sst>
 </file>
@@ -76,16 +88,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Migrated Information/Migrated Loans.xlsx
+++ b/dataset/Migrated Information/Migrated Loans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
   <si>
     <t>System Generated Samity Information</t>
   </si>
@@ -88,16 +88,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/Migrated Information/Migrated Loans.xlsx
+++ b/dataset/Migrated Information/Migrated Loans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>System Generated Samity Information</t>
   </si>

--- a/dataset/Migrated Information/Migrated Loans.xlsx
+++ b/dataset/Migrated Information/Migrated Loans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="8">
   <si>
     <t>System Generated Samity Information</t>
   </si>

--- a/dataset/Migrated Information/Migrated Loans.xlsx
+++ b/dataset/Migrated Information/Migrated Loans.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="17">
   <si>
     <t>System Generated Samity Information</t>
   </si>
@@ -36,6 +36,33 @@
   </si>
   <si>
     <t>Loans is Migrated</t>
+  </si>
+  <si>
+    <t>222-004 - samity4</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Loans is not Migrated</t>
+  </si>
+  <si>
+    <t>222-001 - samity1</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>JAGO-W-222-001-001-1</t>
+  </si>
+  <si>
+    <t>1120</t>
+  </si>
+  <si>
+    <t>JAGO-W-222-001-002-1</t>
   </si>
 </sst>
 </file>
@@ -80,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,6 +127,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
